--- a/SEPTEMBER MONTH TA & DA 2023.xlsx
+++ b/SEPTEMBER MONTH TA & DA 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dieboldnixdorf-my.sharepoint.com/personal/sanjay_aluru_dieboldnixdorf_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="11_9062C57D17D5DF8838B0027C234E9EE1E61138C9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39B6725D-25D8-4289-A715-986325323A07}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="11_9062C57D17D5DF8838B0027C234E9EE1E61138C9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EF37C44-2940-4BEA-A1B8-E41465A70F73}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="38">
   <si>
     <t xml:space="preserve">SANDHYA MARINES LTD </t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t>HOD</t>
+  </si>
+  <si>
+    <t>SUNDAY</t>
+  </si>
+  <si>
+    <t>BIKE</t>
+  </si>
+  <si>
+    <t>HOLIDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIELD </t>
+  </si>
+  <si>
+    <t>Designation                      :  Sr TSO</t>
+  </si>
+  <si>
+    <t>MONTH &amp; YEAR : SEPTEMBER - 2023</t>
   </si>
   <si>
     <r>
@@ -106,8 +124,11 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve"> ALURU SATISH BABU</t>
+      <t xml:space="preserve"> SADANALA AJAY KUMAR</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zone:  Narasapuram</t>
   </si>
   <si>
     <r>
@@ -120,47 +141,35 @@
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve"> AP39JC3714</t>
+      <t xml:space="preserve"> AP05DU6198</t>
     </r>
   </si>
   <si>
-    <t>SUNDAY</t>
-  </si>
-  <si>
-    <t>BIKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Zone:  Thurputhallu</t>
-  </si>
-  <si>
-    <t>chamkuri palem,vemuladivi,modi</t>
-  </si>
-  <si>
-    <t>kondeti kodapa , malu, pasaladeevi</t>
-  </si>
-  <si>
-    <t>perupalem,metrevu,modi</t>
-  </si>
-  <si>
-    <t>perupalem,mutylapalli,kp palem</t>
-  </si>
-  <si>
-    <t>perupalem, mollaparru, yetimondi</t>
-  </si>
-  <si>
-    <t>HOLIDAY</t>
-  </si>
-  <si>
-    <t>karimsetti palem ,pm lanka, thurputhallu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIELD </t>
-  </si>
-  <si>
-    <t>Designation                      :  Sr TSO</t>
-  </si>
-  <si>
-    <t>MONTH &amp; YEAR : SEPTEMBER - 2023</t>
+    <t xml:space="preserve">dharbarevu rajulalanka lakshmaneswaram </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vemuldheevi chinnalanka gondhi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm.lanka dharbarevu vemuldheevi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kopporu mogalthuru dharbarevu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">marritippa vemuldheevi bheyyaputhippa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seetharampuram mg.palem marritippa saripalli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNDAY </t>
+  </si>
+  <si>
+    <t>LEAVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seetharampuram mg.palem marritippa,intheru </t>
   </si>
 </sst>
 </file>
@@ -170,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -257,6 +266,17 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -657,7 +677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,6 +775,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -806,6 +829,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -839,7 +868,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -878,19 +907,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -908,6 +934,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1202,8 +1232,8 @@
   </sheetPr>
   <dimension ref="A2:AP42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1223,74 +1253,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="15.75">
-      <c r="A2" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="43" t="s">
+      <c r="A2" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="J2" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="15.75">
-      <c r="A3" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="40" t="s">
+      <c r="A3" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="J3" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A4" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="72" t="s">
+      <c r="A4" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="3"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
       <c r="H5" s="7"/>
       <c r="I5" s="8"/>
       <c r="J5" s="9"/>
@@ -1299,45 +1329,45 @@
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="71"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="36" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="59" t="s">
+      <c r="M6" s="62" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="36" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="68"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="13" t="s">
         <v>13</v>
       </c>
@@ -1348,52 +1378,50 @@
         <v>15</v>
       </c>
       <c r="H7" s="14"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="37"/>
       <c r="L7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="60"/>
+      <c r="M7" s="63"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="15">
         <v>45170</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="19">
-        <v>42256</v>
+        <v>66845</v>
       </c>
       <c r="F8" s="20">
-        <v>42305</v>
+        <v>66885</v>
       </c>
       <c r="G8" s="20">
         <f t="shared" ref="G8:G38" si="0">F8-E8</f>
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="20">
-        <f t="shared" ref="I8:I37" si="1">G8*3.5</f>
-        <v>171.5</v>
+        <f>G8*3.5</f>
+        <v>140</v>
       </c>
       <c r="J8" s="20">
         <v>200</v>
       </c>
       <c r="K8" s="20"/>
-      <c r="L8" s="21">
-        <v>299</v>
-      </c>
+      <c r="L8" s="21"/>
       <c r="M8" s="20">
-        <f t="shared" ref="M8:M38" si="2">J8+I8+L8</f>
-        <v>670.5</v>
+        <f t="shared" ref="M8:M38" si="1">J8+I8+L8</f>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1401,37 +1429,39 @@
         <v>45171</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" s="20">
-        <v>42305</v>
+        <v>66885</v>
       </c>
       <c r="F9" s="20">
-        <v>42359</v>
+        <v>66927</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="20">
-        <f t="shared" si="1"/>
-        <v>189</v>
+        <f>G9*3.5</f>
+        <v>147</v>
       </c>
       <c r="J9" s="20">
         <v>200</v>
       </c>
       <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>299</v>
+      </c>
       <c r="M9" s="20">
-        <f t="shared" si="2"/>
-        <v>389</v>
+        <f t="shared" si="1"/>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1439,7 +1469,7 @@
         <v>45172</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
@@ -1451,14 +1481,14 @@
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I8:I37" si="2">G10*3.5</f>
         <v>0</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="23"/>
       <c r="L10" s="25"/>
       <c r="M10" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1470,25 +1500,25 @@
         <v>29</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="20">
-        <v>42359</v>
+        <v>66927</v>
       </c>
       <c r="F11" s="19">
-        <v>42415</v>
+        <v>66982</v>
       </c>
       <c r="G11" s="20">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="20">
-        <f t="shared" si="1"/>
-        <v>196</v>
+        <f t="shared" si="2"/>
+        <v>192.5</v>
       </c>
       <c r="J11" s="20">
         <v>200</v>
@@ -1496,8 +1526,8 @@
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
       <c r="M11" s="20">
-        <f t="shared" si="2"/>
-        <v>396</v>
+        <f t="shared" si="1"/>
+        <v>392.5</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1505,28 +1535,28 @@
         <v>45174</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="19">
-        <v>42415</v>
+        <v>66982</v>
       </c>
       <c r="F12" s="19">
-        <v>42467</v>
+        <v>67022</v>
       </c>
       <c r="G12" s="20">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="20">
-        <f t="shared" si="1"/>
-        <v>182</v>
+        <f t="shared" si="2"/>
+        <v>140</v>
       </c>
       <c r="J12" s="20">
         <v>200</v>
@@ -1534,8 +1564,8 @@
       <c r="K12" s="23"/>
       <c r="L12" s="25"/>
       <c r="M12" s="20">
-        <f t="shared" si="2"/>
-        <v>382</v>
+        <f t="shared" si="1"/>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1546,25 +1576,25 @@
         <v>31</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="19">
-        <v>42467</v>
+        <v>67022</v>
       </c>
       <c r="F13" s="19">
-        <v>42515</v>
+        <v>67060</v>
       </c>
       <c r="G13" s="20">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="20">
-        <f t="shared" si="1"/>
-        <v>168</v>
+        <f t="shared" si="2"/>
+        <v>133</v>
       </c>
       <c r="J13" s="20">
         <v>200</v>
@@ -1572,8 +1602,8 @@
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
       <c r="M13" s="20">
-        <f t="shared" si="2"/>
-        <v>368</v>
+        <f t="shared" si="1"/>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="27" customFormat="1">
@@ -1581,28 +1611,28 @@
         <v>45176</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="19">
-        <v>42515</v>
+        <v>67060</v>
       </c>
       <c r="F14" s="19">
-        <v>42567</v>
+        <v>67115</v>
       </c>
       <c r="G14" s="20">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="20">
-        <f t="shared" si="1"/>
-        <v>182</v>
+        <f t="shared" si="2"/>
+        <v>192.5</v>
       </c>
       <c r="J14" s="20">
         <v>200</v>
@@ -1610,8 +1640,8 @@
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
       <c r="M14" s="20">
-        <f t="shared" si="2"/>
-        <v>382</v>
+        <f t="shared" si="1"/>
+        <v>392.5</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1619,28 +1649,28 @@
         <v>45177</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="19">
-        <v>42567</v>
+        <v>67115</v>
       </c>
       <c r="F15" s="19">
-        <v>42617</v>
+        <v>67167</v>
       </c>
       <c r="G15" s="20">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="20">
-        <f t="shared" si="1"/>
-        <v>175</v>
+        <f t="shared" si="2"/>
+        <v>182</v>
       </c>
       <c r="J15" s="20">
         <v>200</v>
@@ -1648,8 +1678,8 @@
       <c r="K15" s="23"/>
       <c r="L15" s="25"/>
       <c r="M15" s="20">
-        <f t="shared" si="2"/>
-        <v>375</v>
+        <f t="shared" si="1"/>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1657,28 +1687,28 @@
         <v>45178</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16" s="19">
-        <v>42617</v>
+        <v>67167</v>
       </c>
       <c r="F16" s="20">
-        <v>42670</v>
+        <v>67227</v>
       </c>
       <c r="G16" s="20">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="20">
-        <f t="shared" si="1"/>
-        <v>185.5</v>
+        <f t="shared" si="2"/>
+        <v>210</v>
       </c>
       <c r="J16" s="20">
         <v>200</v>
@@ -1688,8 +1718,8 @@
         <v>25</v>
       </c>
       <c r="M16" s="20">
-        <f t="shared" si="2"/>
-        <v>410.5</v>
+        <f t="shared" si="1"/>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1697,7 +1727,7 @@
         <v>45179</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="18"/>
@@ -1709,14 +1739,14 @@
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="23"/>
       <c r="L17" s="19"/>
       <c r="M17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1728,25 +1758,25 @@
         <v>29</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" s="20">
-        <v>42670</v>
+        <v>67227</v>
       </c>
       <c r="F18" s="19">
-        <v>42694</v>
+        <v>67252</v>
       </c>
       <c r="G18" s="20">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="20">
-        <f t="shared" si="1"/>
-        <v>84</v>
+        <f t="shared" si="2"/>
+        <v>87.5</v>
       </c>
       <c r="J18" s="20">
         <v>200</v>
@@ -1754,8 +1784,8 @@
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
       <c r="M18" s="20">
-        <f t="shared" si="2"/>
-        <v>284</v>
+        <f t="shared" si="1"/>
+        <v>287.5</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1763,28 +1793,28 @@
         <v>45181</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19" s="19">
-        <v>42695</v>
+        <v>67252</v>
       </c>
       <c r="F19" s="19">
-        <v>42747</v>
+        <v>67292</v>
       </c>
       <c r="G19" s="20">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="20">
-        <f t="shared" si="1"/>
-        <v>182</v>
+        <f t="shared" si="2"/>
+        <v>140</v>
       </c>
       <c r="J19" s="20">
         <v>200</v>
@@ -1792,8 +1822,8 @@
       <c r="K19" s="23"/>
       <c r="L19" s="25"/>
       <c r="M19" s="20">
-        <f t="shared" si="2"/>
-        <v>382</v>
+        <f t="shared" si="1"/>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1804,25 +1834,25 @@
         <v>31</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20" s="19">
-        <v>42747</v>
+        <v>67292</v>
       </c>
       <c r="F20" s="19">
-        <v>42792</v>
+        <v>67332</v>
       </c>
       <c r="G20" s="20">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="20">
-        <f t="shared" si="1"/>
-        <v>157.5</v>
+        <f t="shared" si="2"/>
+        <v>140</v>
       </c>
       <c r="J20" s="20">
         <v>200</v>
@@ -1830,8 +1860,8 @@
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
       <c r="M20" s="20">
-        <f t="shared" si="2"/>
-        <v>357.5</v>
+        <f t="shared" si="1"/>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="27" customFormat="1">
@@ -1839,28 +1869,28 @@
         <v>45183</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E21" s="19">
-        <v>42792</v>
+        <v>67332</v>
       </c>
       <c r="F21" s="19">
-        <v>42845</v>
+        <v>67380</v>
       </c>
       <c r="G21" s="20">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="20">
-        <f t="shared" si="1"/>
-        <v>185.5</v>
+        <f t="shared" si="2"/>
+        <v>168</v>
       </c>
       <c r="J21" s="20">
         <v>200</v>
@@ -1868,8 +1898,8 @@
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
       <c r="M21" s="20">
-        <f t="shared" si="2"/>
-        <v>385.5</v>
+        <f t="shared" si="1"/>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="27" customFormat="1">
@@ -1877,31 +1907,31 @@
         <v>45184</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E22" s="19">
-        <v>42845</v>
+        <v>67380</v>
       </c>
       <c r="F22" s="20">
-        <v>42893</v>
+        <v>67425</v>
       </c>
       <c r="G22" s="23">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H22" s="20">
         <f>F22*3.5</f>
-        <v>150125.5</v>
+        <v>235987.5</v>
       </c>
       <c r="I22" s="20">
-        <f t="shared" si="1"/>
-        <v>168</v>
+        <f t="shared" si="2"/>
+        <v>157.5</v>
       </c>
       <c r="J22" s="20">
         <v>200</v>
@@ -1909,8 +1939,8 @@
       <c r="K22" s="23"/>
       <c r="L22" s="20"/>
       <c r="M22" s="29">
-        <f t="shared" si="2"/>
-        <v>368</v>
+        <f t="shared" si="1"/>
+        <v>357.5</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="27" customFormat="1">
@@ -1918,28 +1948,28 @@
         <v>45185</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23" s="20">
-        <v>42893</v>
+        <v>67425</v>
       </c>
       <c r="F23" s="19">
-        <v>42945</v>
+        <v>67460</v>
       </c>
       <c r="G23" s="20">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="20">
-        <f t="shared" si="1"/>
-        <v>182</v>
+        <f t="shared" si="2"/>
+        <v>122.5</v>
       </c>
       <c r="J23" s="20">
         <v>200</v>
@@ -1949,8 +1979,8 @@
         <v>25</v>
       </c>
       <c r="M23" s="20">
-        <f t="shared" si="2"/>
-        <v>407</v>
+        <f t="shared" si="1"/>
+        <v>347.5</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1958,7 +1988,7 @@
         <v>45186</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
@@ -1970,14 +2000,14 @@
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="30"/>
       <c r="L24" s="23"/>
       <c r="M24" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1985,8 +2015,8 @@
       <c r="A25" s="15">
         <v>45187</v>
       </c>
-      <c r="B25" s="78" t="s">
-        <v>30</v>
+      <c r="B25" s="33" t="s">
+        <v>22</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
@@ -1998,14 +2028,14 @@
       </c>
       <c r="H25" s="23"/>
       <c r="I25" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J25" s="20"/>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
       <c r="M25" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2017,25 +2047,25 @@
         <v>29</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" s="19">
-        <v>42945</v>
+        <v>67460</v>
       </c>
       <c r="F26" s="19">
-        <v>43000</v>
+        <v>67530</v>
       </c>
       <c r="G26" s="20">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="20">
-        <f t="shared" si="1"/>
-        <v>192.5</v>
+        <f t="shared" si="2"/>
+        <v>245</v>
       </c>
       <c r="J26" s="20">
         <v>200</v>
@@ -2043,113 +2073,93 @@
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
       <c r="M26" s="20">
-        <f t="shared" si="2"/>
-        <v>392.5</v>
+        <f t="shared" si="1"/>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="15">
         <v>45189</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="19">
-        <v>43000</v>
-      </c>
-      <c r="F27" s="19">
-        <v>43051</v>
-      </c>
+      <c r="B27" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="20">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="20">
-        <f t="shared" si="1"/>
-        <v>178.5</v>
-      </c>
-      <c r="J27" s="20">
-        <v>200</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="20"/>
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
       <c r="M27" s="20">
-        <f t="shared" si="2"/>
-        <v>378.5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="27" customFormat="1">
       <c r="A28" s="15">
         <v>45190</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="19">
-        <v>43051</v>
-      </c>
-      <c r="F28" s="19">
-        <v>43096</v>
-      </c>
+      <c r="B28" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
       <c r="G28" s="20">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="20">
-        <f t="shared" si="1"/>
-        <v>157.5</v>
-      </c>
-      <c r="J28" s="20">
-        <v>200</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="20"/>
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
       <c r="M28" s="20">
-        <f t="shared" si="2"/>
-        <v>357.5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="15">
         <v>45191</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>27</v>
+      <c r="B29" s="28" t="s">
+        <v>33</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E29" s="19">
-        <v>43096</v>
+        <v>67530</v>
       </c>
       <c r="F29" s="19">
-        <v>43151</v>
+        <v>67590</v>
       </c>
       <c r="G29" s="20">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="20">
-        <f t="shared" si="1"/>
-        <v>192.5</v>
+        <f t="shared" si="2"/>
+        <v>210</v>
       </c>
       <c r="J29" s="20">
         <v>200</v>
@@ -2157,37 +2167,37 @@
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
       <c r="M29" s="20">
-        <f t="shared" si="2"/>
-        <v>392.5</v>
+        <f t="shared" si="1"/>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="15">
         <v>45192</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>26</v>
+      <c r="B30" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30" s="19">
-        <v>43151</v>
+        <v>67590</v>
       </c>
       <c r="F30" s="19">
-        <v>43196</v>
+        <v>67625</v>
       </c>
       <c r="G30" s="20">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="20">
-        <f t="shared" si="1"/>
-        <v>157.5</v>
+        <f t="shared" si="2"/>
+        <v>122.5</v>
       </c>
       <c r="J30" s="20">
         <v>200</v>
@@ -2197,8 +2207,8 @@
         <v>25</v>
       </c>
       <c r="M30" s="20">
-        <f t="shared" si="2"/>
-        <v>382.5</v>
+        <f t="shared" si="1"/>
+        <v>347.5</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2206,7 +2216,7 @@
         <v>45193</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
@@ -2218,14 +2228,14 @@
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J31" s="20"/>
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
       <c r="M31" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2237,16 +2247,16 @@
         <v>29</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E32" s="19">
-        <v>43196</v>
+        <v>67625</v>
       </c>
       <c r="F32" s="19">
-        <v>43241</v>
+        <v>67670</v>
       </c>
       <c r="G32" s="20">
         <f t="shared" si="0"/>
@@ -2254,7 +2264,7 @@
       </c>
       <c r="H32" s="31"/>
       <c r="I32" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>157.5</v>
       </c>
       <c r="J32" s="20">
@@ -2263,7 +2273,7 @@
       <c r="K32" s="31"/>
       <c r="L32" s="23"/>
       <c r="M32" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>357.5</v>
       </c>
     </row>
@@ -2272,28 +2282,28 @@
         <v>45195</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E33" s="19">
-        <v>43241</v>
+        <v>67670</v>
       </c>
       <c r="F33" s="19">
-        <v>43271</v>
+        <v>67720</v>
       </c>
       <c r="G33" s="20">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="20">
-        <f t="shared" si="1"/>
-        <v>105</v>
+        <f t="shared" si="2"/>
+        <v>175</v>
       </c>
       <c r="J33" s="20">
         <v>200</v>
@@ -2301,8 +2311,8 @@
       <c r="K33" s="23"/>
       <c r="L33" s="23"/>
       <c r="M33" s="20">
-        <f t="shared" si="2"/>
-        <v>305</v>
+        <f t="shared" si="1"/>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:42">
@@ -2313,25 +2323,25 @@
         <v>31</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E34" s="19">
-        <v>43271</v>
+        <v>67720</v>
       </c>
       <c r="F34" s="19">
-        <v>43321</v>
+        <v>67780</v>
       </c>
       <c r="G34" s="20">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="20">
-        <f t="shared" si="1"/>
-        <v>175</v>
+        <f t="shared" si="2"/>
+        <v>210</v>
       </c>
       <c r="J34" s="20">
         <v>200</v>
@@ -2339,8 +2349,8 @@
       <c r="K34" s="23"/>
       <c r="L34" s="23"/>
       <c r="M34" s="20">
-        <f t="shared" si="2"/>
-        <v>375</v>
+        <f t="shared" si="1"/>
+        <v>410</v>
       </c>
       <c r="AP34">
         <v>23740</v>
@@ -2351,28 +2361,28 @@
         <v>45197</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E35" s="19">
-        <v>43321</v>
+        <v>67780</v>
       </c>
       <c r="F35" s="19">
-        <v>43370</v>
+        <v>67820</v>
       </c>
       <c r="G35" s="20">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="20">
-        <f t="shared" si="1"/>
-        <v>171.5</v>
+        <f t="shared" si="2"/>
+        <v>140</v>
       </c>
       <c r="J35" s="20">
         <v>200</v>
@@ -2380,8 +2390,8 @@
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
       <c r="M35" s="20">
-        <f t="shared" si="2"/>
-        <v>371.5</v>
+        <f t="shared" si="1"/>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:42" s="27" customFormat="1">
@@ -2389,28 +2399,28 @@
         <v>45198</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E36" s="19">
-        <v>43370</v>
+        <v>67820</v>
       </c>
       <c r="F36" s="19">
-        <v>43423</v>
+        <v>67900</v>
       </c>
       <c r="G36" s="20">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="20">
-        <f t="shared" si="1"/>
-        <v>185.5</v>
+        <f t="shared" si="2"/>
+        <v>280</v>
       </c>
       <c r="J36" s="20">
         <v>200</v>
@@ -2418,37 +2428,37 @@
       <c r="K36" s="23"/>
       <c r="L36" s="23"/>
       <c r="M36" s="20">
-        <f t="shared" si="2"/>
-        <v>385.5</v>
+        <f t="shared" si="1"/>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:42" s="27" customFormat="1">
       <c r="A37" s="15">
         <v>45199</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>28</v>
+      <c r="B37" s="80" t="s">
+        <v>37</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E37" s="19">
-        <v>43423</v>
+        <v>67900</v>
       </c>
       <c r="F37" s="19">
-        <v>43478</v>
+        <v>67970</v>
       </c>
       <c r="G37" s="20">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="20">
-        <f t="shared" si="1"/>
-        <v>192.5</v>
+        <f t="shared" si="2"/>
+        <v>245</v>
       </c>
       <c r="J37" s="20">
         <v>200</v>
@@ -2458,8 +2468,8 @@
         <v>25</v>
       </c>
       <c r="M37" s="20">
-        <f t="shared" si="2"/>
-        <v>417.5</v>
+        <f t="shared" si="1"/>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:42" s="27" customFormat="1">
@@ -2482,34 +2492,34 @@
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:42" ht="18.75">
-      <c r="A39" s="76" t="s">
+      <c r="A39" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
       <c r="G39" s="32">
-        <f t="shared" ref="G39:M39" si="4">SUM(G8:G38)</f>
-        <v>1221</v>
+        <f>SUM(G8:G38)</f>
+        <v>1125</v>
       </c>
       <c r="H39" s="32">
-        <f t="shared" si="4"/>
-        <v>150125.5</v>
+        <f t="shared" ref="G39:M39" si="4">SUM(H8:H38)</f>
+        <v>235987.5</v>
       </c>
       <c r="I39" s="32">
         <f t="shared" si="4"/>
-        <v>4273.5</v>
+        <v>3937.5</v>
       </c>
       <c r="J39" s="32">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="K39" s="32">
         <f t="shared" si="4"/>
@@ -2521,57 +2531,57 @@
       </c>
       <c r="M39" s="32">
         <f t="shared" si="4"/>
-        <v>9672.5</v>
+        <v>8936.5</v>
       </c>
     </row>
     <row r="40" spans="1:42">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="50" t="s">
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="52"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="55"/>
     </row>
     <row r="41" spans="1:42">
-      <c r="A41" s="53"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="55"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="58"/>
     </row>
     <row r="42" spans="1:42">
-      <c r="A42" s="56"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="58"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="21">
